--- a/springboot3-iexcel/springboot3-iexcel-toolkit/src/main/resources/template/template.xlsx
+++ b/springboot3-iexcel/springboot3-iexcel-toolkit/src/main/resources/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22470" windowHeight="15150"/>
+    <workbookView windowWidth="24675" windowHeight="14115"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>个人信息表-{.createTime}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>个人信息表-{time}</t>
   </si>
   <si>
     <t>姓名</t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>{.createTime}</t>
+  </si>
+  <si>
+    <t>Total: {sum}</t>
   </si>
 </sst>
 </file>
@@ -1052,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -1117,6 +1120,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="6:6">
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
